--- a/COS80001_Cloud Engineering/Portfolio-Tracker_v2.2_Protected.xlsx
+++ b/COS80001_Cloud Engineering/Portfolio-Tracker_v2.2_Protected.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arunr\Music\Swinburne_Study\Sem_3\COS80001 - Cloud Engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arunr\Music\Swinburne_Study\Sem_3\COS80001_Cloud Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F1CC3A-B47A-4D70-9405-4FE683E06141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEB2016-E0DE-4AB9-9267-2FE0B99A7215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="v8MtjwWnUnJ1E84wJ1k5H4qGbaNPzen1qZdvVoWshRx4foa2IqHs4EoopOwfMJWW9SFy1tZBXXoasWKu94dlfw==" workbookSaltValue="2keic6eghLEKaBj9VwxLsA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{CF3E672E-2976-6744-95BE-48AF817319B2}"/>
@@ -1609,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E252A9-EA31-394F-B0F7-07907A1A82ED}">
   <dimension ref="A5:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37:M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1724,7 +1724,9 @@
         <v>6</v>
       </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="25.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="4"/>
@@ -1752,7 +1754,7 @@
       </c>
       <c r="B12" s="42" t="str">
         <f>IF(M45=0,"Enter Your Scores --&gt;",IF(OR(M10&lt;6,M12&lt;5,M14&lt;10,M16&lt;2.5,M18&lt;10,M20&lt;2.5,M22&lt;14),"FAILED",IF(AND(M45&gt;=50,M45&lt;60),"PASS",IF(AND(M45&gt;=60,M45&lt;70),"CREDIT",IF(AND(M45&gt;=70,M45&lt;80),"DISTINCTION",IF(AND(M45&gt;=80,M45&lt;=100),"HIGH DISTINCTION","Invalid Scores!"))))))</f>
-        <v>FAILED</v>
+        <v>HIGH DISTINCTION</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="4"/>
@@ -1818,7 +1820,9 @@
         <v>10</v>
       </c>
       <c r="L14" s="4"/>
-      <c r="M14" s="40"/>
+      <c r="M14" s="40">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="4"/>
@@ -1860,7 +1864,9 @@
         <v>2.5</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="40"/>
+      <c r="M16" s="40">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="17" spans="4:13" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="4"/>
@@ -1902,7 +1908,9 @@
         <v>10</v>
       </c>
       <c r="L18" s="4"/>
-      <c r="M18" s="40"/>
+      <c r="M18" s="40">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="4:13" ht="25.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="4"/>
@@ -1944,7 +1952,9 @@
         <v>2.5</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="40"/>
+      <c r="M20" s="40">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="21" spans="4:13" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="4"/>
@@ -1986,7 +1996,9 @@
         <v>14</v>
       </c>
       <c r="L22" s="26"/>
-      <c r="M22" s="40"/>
+      <c r="M22" s="40">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="4:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="4"/>
@@ -2044,7 +2056,9 @@
         <v>4</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="50"/>
+      <c r="M25" s="50">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="4:13" ht="38.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" s="4"/>
@@ -2146,7 +2160,9 @@
         <v>4</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="40"/>
+      <c r="M29" s="40">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="4:13" ht="25.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" s="4"/>
@@ -2196,7 +2212,9 @@
         <v>3</v>
       </c>
       <c r="L31" s="4"/>
-      <c r="M31" s="40"/>
+      <c r="M31" s="40">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="4:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" s="4"/>
@@ -2242,7 +2260,9 @@
         <v>2</v>
       </c>
       <c r="L33" s="4"/>
-      <c r="M33" s="40"/>
+      <c r="M33" s="40">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="4:13" ht="38.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" s="4"/>
@@ -2288,7 +2308,9 @@
         <v>3</v>
       </c>
       <c r="L35" s="4"/>
-      <c r="M35" s="40"/>
+      <c r="M35" s="40">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="4:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" s="4"/>
@@ -2338,7 +2360,9 @@
         <v>7.5</v>
       </c>
       <c r="L37" s="4"/>
-      <c r="M37" s="40"/>
+      <c r="M37" s="40">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="4:13" ht="25.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" s="4"/>
@@ -2400,7 +2424,9 @@
         <v>20</v>
       </c>
       <c r="L40" s="4"/>
-      <c r="M40" s="40"/>
+      <c r="M40" s="40">
+        <v>12</v>
+      </c>
     </row>
     <row r="41" spans="4:13" ht="107" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D41" s="4"/>
@@ -2450,7 +2476,9 @@
         <v>5</v>
       </c>
       <c r="L42" s="4"/>
-      <c r="M42" s="40"/>
+      <c r="M42" s="40">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="4:13" ht="38.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D43" s="4"/>
@@ -2498,7 +2526,7 @@
       </c>
       <c r="M45" s="22">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>84.5</v>
       </c>
     </row>
   </sheetData>

--- a/COS80001_Cloud Engineering/Portfolio-Tracker_v2.2_Protected.xlsx
+++ b/COS80001_Cloud Engineering/Portfolio-Tracker_v2.2_Protected.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arunr\Music\Swinburne_Study\Sem_3\COS80001_Cloud Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEB2016-E0DE-4AB9-9267-2FE0B99A7215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A3CEA5-0BD9-4BB5-B8B5-15F9E0605606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="v8MtjwWnUnJ1E84wJ1k5H4qGbaNPzen1qZdvVoWshRx4foa2IqHs4EoopOwfMJWW9SFy1tZBXXoasWKu94dlfw==" workbookSaltValue="2keic6eghLEKaBj9VwxLsA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{CF3E672E-2976-6744-95BE-48AF817319B2}"/>
@@ -996,34 +996,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
@@ -1032,41 +1004,69 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1610,7 +1610,7 @@
   <dimension ref="A5:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37:M38"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1629,36 +1629,36 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
     </row>
     <row r="7" spans="1:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="8" spans="1:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
       <c r="L8" s="4"/>
       <c r="M8" s="5" t="s">
         <v>37</v>
@@ -1678,13 +1678,13 @@
       <c r="E9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
       <c r="K9" s="9" t="s">
         <v>29</v>
       </c>
@@ -1712,19 +1712,19 @@
       <c r="F10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="37"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="36">
         <v>6</v>
       </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="40">
+      <c r="M10" s="33">
         <v>6</v>
       </c>
     </row>
@@ -1736,27 +1736,27 @@
       <c r="F11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="38"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="38"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="34"/>
+      <c r="K11" s="37"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="41"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="38" t="str">
         <f>IF(M45=0,"Enter Your Scores --&gt;",IF(OR(M10&lt;6,M12&lt;5,M14&lt;10,M16&lt;2.5,M18&lt;10,M20&lt;2.5,M22&lt;14),"FAILED",IF(AND(M45&gt;=50,M45&lt;60),"PASS",IF(AND(M45&gt;=60,M45&lt;70),"CREDIT",IF(AND(M45&gt;=70,M45&lt;80),"DISTINCTION",IF(AND(M45&gt;=80,M45&lt;=100),"HIGH DISTINCTION","Invalid Scores!"))))))</f>
         <v>HIGH DISTINCTION</v>
       </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="4"/>
       <c r="E12" s="17" t="s">
         <v>2</v>
@@ -1764,19 +1764,19 @@
       <c r="F12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="37"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="37"/>
+      <c r="I12" s="45"/>
       <c r="J12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="36">
         <v>5</v>
       </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="40">
+      <c r="M12" s="33">
         <v>5</v>
       </c>
     </row>
@@ -1788,17 +1788,17 @@
       <c r="F13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="38"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="38"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="34"/>
+      <c r="K13" s="37"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="41"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="D14" s="4"/>
@@ -1808,19 +1808,19 @@
       <c r="F14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="37"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="37"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="36">
         <v>10</v>
       </c>
       <c r="L14" s="4"/>
-      <c r="M14" s="40">
+      <c r="M14" s="33">
         <v>10</v>
       </c>
     </row>
@@ -1832,17 +1832,17 @@
       <c r="F15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="38"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="38"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="34"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="41"/>
+      <c r="M15" s="34"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.5">
       <c r="D16" s="4"/>
@@ -1852,19 +1852,19 @@
       <c r="F16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="37"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="37"/>
+      <c r="I16" s="45"/>
       <c r="J16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="36">
         <v>2.5</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="40">
+      <c r="M16" s="33">
         <v>2.5</v>
       </c>
     </row>
@@ -1876,17 +1876,17 @@
       <c r="F17" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="38"/>
+      <c r="G17" s="47"/>
       <c r="H17" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="38"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="34"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="41"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D18" s="4"/>
@@ -1896,19 +1896,19 @@
       <c r="F18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="33"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="33"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="36">
         <v>10</v>
       </c>
       <c r="L18" s="4"/>
-      <c r="M18" s="40">
+      <c r="M18" s="33">
         <v>10</v>
       </c>
     </row>
@@ -1920,17 +1920,17 @@
       <c r="F19" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="34"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="34"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="34"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="50"/>
+      <c r="M19" s="35"/>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D20" s="4"/>
@@ -1940,19 +1940,19 @@
       <c r="F20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="37"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="37"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="36">
         <v>2.5</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="40">
+      <c r="M20" s="33">
         <v>2.5</v>
       </c>
     </row>
@@ -1964,17 +1964,17 @@
       <c r="F21" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="38"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="38"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="34"/>
+      <c r="K21" s="37"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="41"/>
+      <c r="M21" s="34"/>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D22" s="4"/>
@@ -1984,19 +1984,19 @@
       <c r="F22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="37"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="37"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="36">
         <v>14</v>
       </c>
       <c r="L22" s="26"/>
-      <c r="M22" s="40">
+      <c r="M22" s="33">
         <v>14</v>
       </c>
     </row>
@@ -2008,17 +2008,17 @@
       <c r="F23" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="49"/>
+      <c r="G23" s="46"/>
       <c r="H23" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="49"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="39"/>
+      <c r="K23" s="48"/>
       <c r="L23" s="27"/>
-      <c r="M23" s="41"/>
+      <c r="M23" s="34"/>
     </row>
     <row r="24" spans="4:13" ht="7.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D24" s="4"/>
@@ -2052,11 +2052,11 @@
       <c r="J25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="48">
         <v>4</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="50">
+      <c r="M25" s="35">
         <v>4</v>
       </c>
     </row>
@@ -2080,9 +2080,9 @@
       <c r="J26" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K26" s="34"/>
+      <c r="K26" s="37"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="41"/>
+      <c r="M26" s="34"/>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D27" s="4"/>
@@ -2104,11 +2104,11 @@
       <c r="J27" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="36">
         <v>1.5</v>
       </c>
       <c r="L27" s="4"/>
-      <c r="M27" s="40">
+      <c r="M27" s="33">
         <v>1.5</v>
       </c>
     </row>
@@ -2132,9 +2132,9 @@
       <c r="J28" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K28" s="34"/>
+      <c r="K28" s="37"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="41"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D29" s="4"/>
@@ -2156,11 +2156,11 @@
       <c r="J29" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="36">
         <v>4</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="40">
+      <c r="M29" s="33">
         <v>3</v>
       </c>
     </row>
@@ -2184,9 +2184,9 @@
       <c r="J30" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K30" s="34"/>
+      <c r="K30" s="37"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="41"/>
+      <c r="M30" s="34"/>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D31" s="4"/>
@@ -2208,11 +2208,11 @@
       <c r="J31" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="36">
         <v>3</v>
       </c>
       <c r="L31" s="4"/>
-      <c r="M31" s="40">
+      <c r="M31" s="33">
         <v>2</v>
       </c>
     </row>
@@ -2236,9 +2236,9 @@
       <c r="J32" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K32" s="34"/>
+      <c r="K32" s="37"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="41"/>
+      <c r="M32" s="34"/>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D33" s="4"/>
@@ -2248,19 +2248,19 @@
       <c r="F33" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="33"/>
+      <c r="G33" s="36"/>
       <c r="H33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="33"/>
+      <c r="I33" s="36"/>
       <c r="J33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="36">
         <v>2</v>
       </c>
       <c r="L33" s="4"/>
-      <c r="M33" s="40">
+      <c r="M33" s="33">
         <v>2</v>
       </c>
     </row>
@@ -2272,17 +2272,17 @@
       <c r="F34" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="34"/>
+      <c r="G34" s="37"/>
       <c r="H34" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="34"/>
+      <c r="I34" s="37"/>
       <c r="J34" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K34" s="34"/>
+      <c r="K34" s="37"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="41"/>
+      <c r="M34" s="34"/>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D35" s="4"/>
@@ -2304,11 +2304,11 @@
       <c r="J35" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="33">
+      <c r="K35" s="36">
         <v>3</v>
       </c>
       <c r="L35" s="4"/>
-      <c r="M35" s="40">
+      <c r="M35" s="33">
         <v>2</v>
       </c>
     </row>
@@ -2332,9 +2332,9 @@
       <c r="J36" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K36" s="34"/>
+      <c r="K36" s="37"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="41"/>
+      <c r="M36" s="34"/>
     </row>
     <row r="37" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D37" s="4"/>
@@ -2356,12 +2356,12 @@
       <c r="J37" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="36">
         <v>7.5</v>
       </c>
       <c r="L37" s="4"/>
-      <c r="M37" s="40">
-        <v>4</v>
+      <c r="M37" s="33">
+        <v>7.5</v>
       </c>
     </row>
     <row r="38" spans="4:13" ht="25.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2384,9 +2384,9 @@
       <c r="J38" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K38" s="34"/>
+      <c r="K38" s="37"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="41"/>
+      <c r="M38" s="34"/>
     </row>
     <row r="39" spans="4:13" ht="7.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D39" s="4"/>
@@ -2420,11 +2420,11 @@
       <c r="J40" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K40" s="33">
+      <c r="K40" s="36">
         <v>20</v>
       </c>
       <c r="L40" s="4"/>
-      <c r="M40" s="40">
+      <c r="M40" s="33">
         <v>12</v>
       </c>
     </row>
@@ -2448,9 +2448,9 @@
       <c r="J41" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="K41" s="34"/>
+      <c r="K41" s="37"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="41"/>
+      <c r="M41" s="34"/>
     </row>
     <row r="42" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D42" s="4"/>
@@ -2472,11 +2472,11 @@
       <c r="J42" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="36">
         <v>5</v>
       </c>
       <c r="L42" s="4"/>
-      <c r="M42" s="40">
+      <c r="M42" s="33">
         <v>4</v>
       </c>
     </row>
@@ -2500,9 +2500,9 @@
       <c r="J43" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K43" s="34"/>
+      <c r="K43" s="37"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="41"/>
+      <c r="M43" s="34"/>
     </row>
     <row r="44" spans="4:13" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D44" s="4"/>
@@ -2526,29 +2526,33 @@
       </c>
       <c r="M45" s="22">
         <f t="shared" si="0"/>
-        <v>84.5</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="FJY+hjz4LbcQbhYVDrvqVYgEp9VLePdwVRZ/rLfIRnNk+LIwkthGQwYwa4H5HFyW1v/WrgDLAV1/E9ctGl8alQ==" saltValue="TMKDA9tgZ+eN8TtVtqh2yA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="54">
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
     <mergeCell ref="M42:M43"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A8:C8"/>
@@ -2565,27 +2569,23 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="M25:M26"/>
     <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M20:M21"/>
   </mergeCells>
   <conditionalFormatting sqref="A10 F10 F12 F14 F16 F22 G25 G27 G29 H31 F33 G37 G40 G42">
     <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">

--- a/COS80001_Cloud Engineering/Portfolio-Tracker_v2.2_Protected.xlsx
+++ b/COS80001_Cloud Engineering/Portfolio-Tracker_v2.2_Protected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arunr\Music\Swinburne_Study\Sem_3\COS80001_Cloud Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A3CEA5-0BD9-4BB5-B8B5-15F9E0605606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9470862A-537C-4CED-8CDD-38F9B4727080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="v8MtjwWnUnJ1E84wJ1k5H4qGbaNPzen1qZdvVoWshRx4foa2IqHs4EoopOwfMJWW9SFy1tZBXXoasWKu94dlfw==" workbookSaltValue="2keic6eghLEKaBj9VwxLsA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{CF3E672E-2976-6744-95BE-48AF817319B2}"/>
@@ -996,6 +996,34 @@
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
@@ -1004,69 +1032,41 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1609,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E252A9-EA31-394F-B0F7-07907A1A82ED}">
   <dimension ref="A5:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1629,36 +1629,36 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="8" spans="1:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
       <c r="L8" s="4"/>
       <c r="M8" s="5" t="s">
         <v>37</v>
@@ -1678,13 +1678,13 @@
       <c r="E9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="48"/>
       <c r="K9" s="9" t="s">
         <v>29</v>
       </c>
@@ -1712,19 +1712,19 @@
       <c r="F10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="45"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="45"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="33">
         <v>6</v>
       </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="33">
+      <c r="M10" s="40">
         <v>6</v>
       </c>
     </row>
@@ -1736,27 +1736,27 @@
       <c r="F11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="47"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="47"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="37"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="34"/>
+      <c r="M11" s="41"/>
     </row>
     <row r="12" spans="1:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="38" t="str">
+      <c r="B12" s="42" t="str">
         <f>IF(M45=0,"Enter Your Scores --&gt;",IF(OR(M10&lt;6,M12&lt;5,M14&lt;10,M16&lt;2.5,M18&lt;10,M20&lt;2.5,M22&lt;14),"FAILED",IF(AND(M45&gt;=50,M45&lt;60),"PASS",IF(AND(M45&gt;=60,M45&lt;70),"CREDIT",IF(AND(M45&gt;=70,M45&lt;80),"DISTINCTION",IF(AND(M45&gt;=80,M45&lt;=100),"HIGH DISTINCTION","Invalid Scores!"))))))</f>
         <v>HIGH DISTINCTION</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="4"/>
       <c r="E12" s="17" t="s">
         <v>2</v>
@@ -1764,19 +1764,19 @@
       <c r="F12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="45"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="45"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="33">
         <v>5</v>
       </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="33">
+      <c r="M12" s="40">
         <v>5</v>
       </c>
     </row>
@@ -1788,17 +1788,17 @@
       <c r="F13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="47"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="47"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="37"/>
+      <c r="K13" s="34"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="34"/>
+      <c r="M13" s="41"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="D14" s="4"/>
@@ -1808,19 +1808,19 @@
       <c r="F14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="45"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="45"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="33">
         <v>10</v>
       </c>
       <c r="L14" s="4"/>
-      <c r="M14" s="33">
+      <c r="M14" s="40">
         <v>10</v>
       </c>
     </row>
@@ -1832,17 +1832,17 @@
       <c r="F15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="47"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="47"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="37"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="34"/>
+      <c r="M15" s="41"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.5">
       <c r="D16" s="4"/>
@@ -1852,19 +1852,19 @@
       <c r="F16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="45"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="33">
         <v>2.5</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="33">
+      <c r="M16" s="40">
         <v>2.5</v>
       </c>
     </row>
@@ -1876,17 +1876,17 @@
       <c r="F17" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="47"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="47"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="37"/>
+      <c r="K17" s="34"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="34"/>
+      <c r="M17" s="41"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D18" s="4"/>
@@ -1896,19 +1896,19 @@
       <c r="F18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="36"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="36"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="33">
         <v>10</v>
       </c>
       <c r="L18" s="4"/>
-      <c r="M18" s="33">
+      <c r="M18" s="40">
         <v>10</v>
       </c>
     </row>
@@ -1920,17 +1920,17 @@
       <c r="F19" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="37"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="37"/>
+      <c r="I19" s="34"/>
       <c r="J19" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="37"/>
+      <c r="K19" s="34"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="35"/>
+      <c r="M19" s="50"/>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D20" s="4"/>
@@ -1940,19 +1940,19 @@
       <c r="F20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="45"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="45"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="33">
         <v>2.5</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="33">
+      <c r="M20" s="40">
         <v>2.5</v>
       </c>
     </row>
@@ -1964,17 +1964,17 @@
       <c r="F21" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="47"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="47"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="37"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="34"/>
+      <c r="M21" s="41"/>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D22" s="4"/>
@@ -1984,19 +1984,19 @@
       <c r="F22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="45"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="45"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="33">
         <v>14</v>
       </c>
       <c r="L22" s="26"/>
-      <c r="M22" s="33">
+      <c r="M22" s="40">
         <v>14</v>
       </c>
     </row>
@@ -2008,17 +2008,17 @@
       <c r="F23" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="46"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="46"/>
+      <c r="I23" s="49"/>
       <c r="J23" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="48"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="27"/>
-      <c r="M23" s="34"/>
+      <c r="M23" s="41"/>
     </row>
     <row r="24" spans="4:13" ht="7.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D24" s="4"/>
@@ -2052,11 +2052,11 @@
       <c r="J25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="48">
+      <c r="K25" s="39">
         <v>4</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="35">
+      <c r="M25" s="50">
         <v>4</v>
       </c>
     </row>
@@ -2080,9 +2080,9 @@
       <c r="J26" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K26" s="37"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="34"/>
+      <c r="M26" s="41"/>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D27" s="4"/>
@@ -2104,11 +2104,11 @@
       <c r="J27" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="33">
         <v>1.5</v>
       </c>
       <c r="L27" s="4"/>
-      <c r="M27" s="33">
+      <c r="M27" s="40">
         <v>1.5</v>
       </c>
     </row>
@@ -2132,9 +2132,9 @@
       <c r="J28" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K28" s="37"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="34"/>
+      <c r="M28" s="41"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D29" s="4"/>
@@ -2156,11 +2156,11 @@
       <c r="J29" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29" s="33">
         <v>4</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="33">
+      <c r="M29" s="40">
         <v>3</v>
       </c>
     </row>
@@ -2184,9 +2184,9 @@
       <c r="J30" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K30" s="37"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="34"/>
+      <c r="M30" s="41"/>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D31" s="4"/>
@@ -2208,11 +2208,11 @@
       <c r="J31" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="33">
         <v>3</v>
       </c>
       <c r="L31" s="4"/>
-      <c r="M31" s="33">
+      <c r="M31" s="40">
         <v>2</v>
       </c>
     </row>
@@ -2236,9 +2236,9 @@
       <c r="J32" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K32" s="37"/>
+      <c r="K32" s="34"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="34"/>
+      <c r="M32" s="41"/>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D33" s="4"/>
@@ -2248,19 +2248,19 @@
       <c r="F33" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="36"/>
+      <c r="G33" s="33"/>
       <c r="H33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="36"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="33">
         <v>2</v>
       </c>
       <c r="L33" s="4"/>
-      <c r="M33" s="33">
+      <c r="M33" s="40">
         <v>2</v>
       </c>
     </row>
@@ -2272,17 +2272,17 @@
       <c r="F34" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="37"/>
+      <c r="G34" s="34"/>
       <c r="H34" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="37"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K34" s="37"/>
+      <c r="K34" s="34"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="34"/>
+      <c r="M34" s="41"/>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D35" s="4"/>
@@ -2304,11 +2304,11 @@
       <c r="J35" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="33">
         <v>3</v>
       </c>
       <c r="L35" s="4"/>
-      <c r="M35" s="33">
+      <c r="M35" s="40">
         <v>2</v>
       </c>
     </row>
@@ -2332,9 +2332,9 @@
       <c r="J36" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K36" s="37"/>
+      <c r="K36" s="34"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="34"/>
+      <c r="M36" s="41"/>
     </row>
     <row r="37" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D37" s="4"/>
@@ -2356,11 +2356,11 @@
       <c r="J37" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="33">
         <v>7.5</v>
       </c>
       <c r="L37" s="4"/>
-      <c r="M37" s="33">
+      <c r="M37" s="40">
         <v>7.5</v>
       </c>
     </row>
@@ -2384,9 +2384,9 @@
       <c r="J38" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K38" s="37"/>
+      <c r="K38" s="34"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="34"/>
+      <c r="M38" s="41"/>
     </row>
     <row r="39" spans="4:13" ht="7.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D39" s="4"/>
@@ -2420,11 +2420,11 @@
       <c r="J40" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K40" s="36">
+      <c r="K40" s="33">
         <v>20</v>
       </c>
       <c r="L40" s="4"/>
-      <c r="M40" s="33">
+      <c r="M40" s="40">
         <v>12</v>
       </c>
     </row>
@@ -2448,9 +2448,9 @@
       <c r="J41" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="K41" s="37"/>
+      <c r="K41" s="34"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="34"/>
+      <c r="M41" s="41"/>
     </row>
     <row r="42" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D42" s="4"/>
@@ -2472,11 +2472,11 @@
       <c r="J42" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="36">
+      <c r="K42" s="33">
         <v>5</v>
       </c>
       <c r="L42" s="4"/>
-      <c r="M42" s="33">
+      <c r="M42" s="40">
         <v>4</v>
       </c>
     </row>
@@ -2500,9 +2500,9 @@
       <c r="J43" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K43" s="37"/>
+      <c r="K43" s="34"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="34"/>
+      <c r="M43" s="41"/>
     </row>
     <row r="44" spans="4:13" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D44" s="4"/>
@@ -2532,6 +2532,44 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="FJY+hjz4LbcQbhYVDrvqVYgEp9VLePdwVRZ/rLfIRnNk+LIwkthGQwYwa4H5HFyW1v/WrgDLAV1/E9ctGl8alQ==" saltValue="TMKDA9tgZ+eN8TtVtqh2yA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="54">
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="K33:K34"/>
     <mergeCell ref="A5:C5"/>
@@ -2548,44 +2586,6 @@
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M20:M21"/>
   </mergeCells>
   <conditionalFormatting sqref="A10 F10 F12 F14 F16 F22 G25 G27 G29 H31 F33 G37 G40 G42">
     <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
